--- a/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E325AD42-DF9C-4E89-B709-356CDD655D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BDBE19-E723-44CA-AFB5-2DF2D7870E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB31F65-0C1E-4E26-AA05-96F48F825A5D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8ACA662B-9A91-44E9-805E-FF3684E81985}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,162 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>3,88%</t>
   </si>
   <si>
@@ -116,27 +251,6 @@
     <t>4,88%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>34,02%</t>
   </si>
   <si>
@@ -164,18 +278,6 @@
     <t>40,92%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
     <t>61,87%</t>
   </si>
   <si>
@@ -203,106 +305,37 @@
     <t>67,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -332,27 +365,6 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>31,93%</t>
   </si>
   <si>
@@ -378,18 +390,6 @@
   </si>
   <si>
     <t>39,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
   </si>
   <si>
     <t>63,74%</t>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4957D7B4-9459-4DD5-95E8-7C061BBA25F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78EBC90-63D1-4AEF-B255-ED880BFA117F}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1198,10 +1198,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>8772</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1213,34 +1213,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2749</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7">
-        <v>11521</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,19 +1249,19 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>160</v>
+        <v>1549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>160</v>
+        <v>1549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,49 +1300,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>76808</v>
+        <v>725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>61778</v>
+        <v>1367</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>138586</v>
+        <v>2092</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,49 +1351,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>364</v>
+        <v>8493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>14552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>364</v>
+        <v>23046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1402,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>139701</v>
+        <v>30609</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>18082</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>63</v>
+      </c>
+      <c r="N14" s="7">
+        <v>48691</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="7">
-        <v>148</v>
-      </c>
-      <c r="I14" s="7">
-        <v>104018</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="7">
-        <v>313</v>
-      </c>
-      <c r="N14" s="7">
-        <v>243718</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,54 +1453,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1509,46 +1509,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>725</v>
+        <v>364</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>364</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1367</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2092</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,19 +1557,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1549</v>
+        <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1578,28 +1578,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1549</v>
+        <v>160</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1608,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>8493</v>
+        <v>8772</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2749</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="7">
+        <v>17</v>
+      </c>
+      <c r="N18" s="7">
+        <v>11521</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14552</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="7">
-        <v>26</v>
-      </c>
-      <c r="N18" s="7">
-        <v>23046</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,46 +1659,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>76808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="7">
+        <v>71</v>
+      </c>
+      <c r="I19" s="7">
+        <v>61778</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="7">
+        <v>151</v>
+      </c>
+      <c r="N19" s="7">
+        <v>138586</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>79</v>
@@ -1710,10 +1710,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D20" s="7">
-        <v>30609</v>
+        <v>139701</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>80</v>
@@ -1725,10 +1725,10 @@
         <v>82</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I20" s="7">
-        <v>18082</v>
+        <v>104018</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>83</v>
@@ -1740,10 +1740,10 @@
         <v>85</v>
       </c>
       <c r="M20" s="7">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="N20" s="7">
-        <v>48691</v>
+        <v>243718</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>86</v>
@@ -1761,49 +1761,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,49 +1814,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>9497</v>
+        <v>364</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="7">
-        <v>8</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4116</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>364</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="7">
-        <v>20</v>
-      </c>
-      <c r="N22" s="7">
-        <v>13613</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1871,13 @@
         <v>1708</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -1901,13 +1901,13 @@
         <v>1708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +1916,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>85302</v>
+        <v>9497</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4116</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>20</v>
+      </c>
+      <c r="N24" s="7">
+        <v>13613</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="7">
-        <v>88</v>
-      </c>
-      <c r="I24" s="7">
-        <v>76331</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="7">
-        <v>177</v>
-      </c>
-      <c r="N24" s="7">
-        <v>161632</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,46 +1967,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D25" s="7">
-        <v>364</v>
+        <v>85302</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="7">
+        <v>88</v>
+      </c>
+      <c r="I25" s="7">
+        <v>76331</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>177</v>
+      </c>
+      <c r="N25" s="7">
+        <v>161632</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>364</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>117</v>
@@ -2075,13 +2075,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2090,13 +2090,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
@@ -2105,13 +2105,13 @@
         <v>469726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BDBE19-E723-44CA-AFB5-2DF2D7870E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7307AA-9A55-4290-939A-AEF44EBBC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8ACA662B-9A91-44E9-805E-FF3684E81985}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12099AC0-F3C7-4C8B-BC69-274994637559}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,358 +65,364 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,66%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -523,39 +529,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -607,7 +613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -718,13 +724,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -733,6 +732,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -797,19 +803,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78EBC90-63D1-4AEF-B255-ED880BFA117F}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90040DFE-22BC-470E-8657-24487C2818F4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1200,47 +1226,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,49 +1269,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,49 +1314,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,49 +1359,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7">
-        <v>8493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1404,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
-      </c>
-      <c r="N14" s="7">
-        <v>48691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,102 +1449,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>364</v>
+        <v>68145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="N16" s="7">
-        <v>364</v>
+        <v>110446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1547,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>160</v>
+        <v>25218</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>27840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>160</v>
+        <v>53058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1598,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>8772</v>
+        <v>4437</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2749</v>
+        <v>1526</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>11521</v>
+        <v>5962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,49 +1649,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>76808</v>
+        <v>1549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>61778</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>138586</v>
+        <v>1549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,49 +1700,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>139701</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>104018</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>243718</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,102 +1751,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>364</v>
+        <v>102164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>79799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="N22" s="7">
-        <v>364</v>
+        <v>181963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,49 +1855,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D23" s="7">
-        <v>1708</v>
+        <v>60084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>48491</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="N23" s="7">
-        <v>1708</v>
+        <v>108575</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +1906,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>9497</v>
+        <v>5060</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>4116</v>
+        <v>2590</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>13613</v>
+        <v>7650</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +1957,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>85302</v>
+        <v>160</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>76331</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>161632</v>
+        <v>160</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,49 +2008,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>170309</v>
+        <v>364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>122100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>292409</v>
+        <v>364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,55 +2059,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>202</v>
+      </c>
+      <c r="D28" s="7">
+        <v>170309</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="7">
+        <v>174</v>
+      </c>
+      <c r="I28" s="7">
+        <v>122100</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="7">
+        <v>376</v>
+      </c>
+      <c r="N28" s="7">
+        <v>292409</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>89</v>
+      </c>
+      <c r="D29" s="7">
+        <v>85302</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="7">
+        <v>88</v>
+      </c>
+      <c r="I29" s="7">
+        <v>76331</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="7">
+        <v>177</v>
+      </c>
+      <c r="N29" s="7">
+        <v>161632</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9497</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="7">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4116</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="7">
+        <v>20</v>
+      </c>
+      <c r="N30" s="7">
+        <v>13613</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1708</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1708</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>364</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>364</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="7">
         <v>577</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469726</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7307AA-9A55-4290-939A-AEF44EBBC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{369943C3-AAD9-4100-925C-1FBDF3DEA754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12099AC0-F3C7-4C8B-BC69-274994637559}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92CB7C37-7780-4C3B-8CB6-84FE5BAD526A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -95,64 +95,64 @@
     <t>68,59%</t>
   </si>
   <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>59,02%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -161,16 +161,16 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -179,7 +179,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -191,7 +191,7 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -209,19 +209,19 @@
     <t>60,87%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>60,92%</t>
@@ -230,64 +230,67 @@
     <t>54,18%</t>
   </si>
   <si>
-    <t>66,85%</t>
+    <t>66,84%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>37,05%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>36,35%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -296,106 +299,106 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>37,69%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>6,22%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -407,19 +410,19 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -834,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90040DFE-22BC-470E-8657-24487C2818F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00BD0A1-3F77-4510-9E33-40008D7BFB3F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,10 +1948,10 @@
         <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1966,13 @@
         <v>160</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1984,7 +1987,7 @@
         <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -1993,13 +1996,13 @@
         <v>160</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2017,13 @@
         <v>364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2035,7 +2038,7 @@
         <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2044,13 +2047,13 @@
         <v>364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2121,13 @@
         <v>170309</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7">
         <v>174</v>
@@ -2133,13 +2136,13 @@
         <v>122100</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M28" s="7">
         <v>376</v>
@@ -2148,13 +2151,13 @@
         <v>292409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2172,13 @@
         <v>85302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -2184,13 +2187,13 @@
         <v>76331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>177</v>
@@ -2199,13 +2202,13 @@
         <v>161632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2223,13 @@
         <v>9497</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2235,13 +2238,13 @@
         <v>4116</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -2250,13 +2253,13 @@
         <v>13613</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2274,13 @@
         <v>1708</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2292,7 +2295,7 @@
         <v>48</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -2301,13 +2304,13 @@
         <v>1708</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2325,13 @@
         <v>364</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2343,7 +2346,7 @@
         <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2352,13 +2355,13 @@
         <v>364</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2417,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369943C3-AAD9-4100-925C-1FBDF3DEA754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A675EB-FF89-41B5-9909-5DD61C2140CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92CB7C37-7780-4C3B-8CB6-84FE5BAD526A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7AAA8DB5-EAA4-4178-9D9F-170D56827D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="149">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,337 +92,394 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -837,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00BD0A1-3F77-4510-9E33-40008D7BFB3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8DABF-E595-4ADA-AEF0-AE4A3EC1497B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1499,10 +1556,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>68145</v>
+        <v>2393</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1514,10 +1571,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>42300</v>
+        <v>908</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1529,10 +1586,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>110446</v>
+        <v>3301</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1550,10 +1607,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>25218</v>
+        <v>2051</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1565,34 +1622,34 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2051</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27840</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="7">
-        <v>62</v>
-      </c>
-      <c r="N17" s="7">
-        <v>53058</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,49 +1658,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4437</v>
+        <v>2799</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6765</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1526</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>12</v>
+      </c>
+      <c r="N18" s="7">
+        <v>9564</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="7">
-        <v>9</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5962</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,46 +1709,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>1549</v>
+        <v>24740</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>26633</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>65</v>
+      </c>
+      <c r="N19" s="7">
+        <v>51374</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1549</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -1703,49 +1760,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>35942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>65059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>101001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,102 +1811,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>102164</v>
+        <v>1564</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>79799</v>
+        <v>1789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>181963</v>
+        <v>3352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,49 +1915,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>60084</v>
+        <v>2365</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>48491</v>
+        <v>808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>108575</v>
+        <v>3173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,49 +1966,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>5060</v>
+        <v>7036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>2590</v>
+        <v>11325</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>7650</v>
+        <v>18360</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,49 +2017,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>160</v>
+        <v>57510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>62259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N25" s="7">
-        <v>160</v>
+        <v>119768</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,49 +2068,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D26" s="7">
-        <v>364</v>
+        <v>74072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>96603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="N26" s="7">
-        <v>364</v>
+        <v>170675</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,49 +2119,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,49 +2172,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>170309</v>
+        <v>3957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>122100</v>
+        <v>2697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
-        <v>376</v>
+        <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>292409</v>
+        <v>6653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,49 +2223,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>85302</v>
+        <v>4416</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>76331</v>
+        <v>808</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>161632</v>
+        <v>5224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,49 +2274,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>9497</v>
+        <v>9835</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I30" s="7">
-        <v>4116</v>
+        <v>18089</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>13613</v>
+        <v>27924</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,49 +2325,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7">
-        <v>1708</v>
+        <v>82250</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>88892</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="N31" s="7">
-        <v>1708</v>
+        <v>171142</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,49 +2376,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="D32" s="7">
-        <v>364</v>
+        <v>110014</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>161662</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="N32" s="7">
-        <v>364</v>
+        <v>271676</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,54 +2427,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>307</v>
       </c>
-      <c r="D33" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270</v>
-      </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
